--- a/final_output.xlsx
+++ b/final_output.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3728"/>
+  <dimension ref="A1:C3728"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,14 +424,15 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>IP13-ECSOFT</t>
+          <t>3708070076129</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>108,50</t>
-        </is>
-      </c>
+          <t>2,99</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -4356,6 +4357,9 @@
           <t>46,30</t>
         </is>
       </c>
+      <c r="C328" t="n">
+        <v>63.89399999999999</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -4824,6 +4828,9 @@
           <t>0,49</t>
         </is>
       </c>
+      <c r="C367" t="n">
+        <v>1.9</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -4896,6 +4903,9 @@
           <t>0,48</t>
         </is>
       </c>
+      <c r="C373" t="n">
+        <v>1.9</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -4908,6 +4918,9 @@
           <t>0,48</t>
         </is>
       </c>
+      <c r="C374" t="n">
+        <v>1.9</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
@@ -4920,6 +4933,9 @@
           <t>0,48</t>
         </is>
       </c>
+      <c r="C375" t="n">
+        <v>1.9</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
@@ -4968,6 +4984,9 @@
           <t>36,95</t>
         </is>
       </c>
+      <c r="C379" t="n">
+        <v>67.86</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
@@ -4992,6 +5011,9 @@
           <t>25,80</t>
         </is>
       </c>
+      <c r="C381" t="n">
+        <v>35.604</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -5016,6 +5038,9 @@
           <t>24,00</t>
         </is>
       </c>
+      <c r="C383" t="n">
+        <v>33.12</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
@@ -5028,6 +5053,9 @@
           <t>23,90</t>
         </is>
       </c>
+      <c r="C384" t="n">
+        <v>43.99</v>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
@@ -5040,6 +5068,9 @@
           <t>23,50</t>
         </is>
       </c>
+      <c r="C385" t="n">
+        <v>32.43</v>
+      </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
@@ -5064,6 +5095,9 @@
           <t>11,69</t>
         </is>
       </c>
+      <c r="C387" t="n">
+        <v>18.9</v>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
@@ -5220,6 +5254,9 @@
           <t>3,52</t>
         </is>
       </c>
+      <c r="C400" t="n">
+        <v>10.9</v>
+      </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
@@ -15168,6 +15205,9 @@
           <t>4,8</t>
         </is>
       </c>
+      <c r="C1229" t="n">
+        <v>10.9</v>
+      </c>
     </row>
     <row r="1230">
       <c r="A1230" t="inlineStr">
@@ -15180,6 +15220,9 @@
           <t>4,8</t>
         </is>
       </c>
+      <c r="C1230" t="n">
+        <v>13.89</v>
+      </c>
     </row>
     <row r="1231">
       <c r="A1231" t="inlineStr">
@@ -15204,6 +15247,9 @@
           <t>4,8</t>
         </is>
       </c>
+      <c r="C1232" t="n">
+        <v>10.89</v>
+      </c>
     </row>
     <row r="1233">
       <c r="A1233" t="inlineStr">
@@ -15216,6 +15262,9 @@
           <t>4,8</t>
         </is>
       </c>
+      <c r="C1233" t="n">
+        <v>10.9</v>
+      </c>
     </row>
     <row r="1234">
       <c r="A1234" t="inlineStr">
@@ -15372,6 +15421,9 @@
           <t>0,78</t>
         </is>
       </c>
+      <c r="C1246" t="n">
+        <v>2.6</v>
+      </c>
     </row>
     <row r="1247">
       <c r="A1247" t="inlineStr">
@@ -15408,6 +15460,9 @@
           <t>2,25</t>
         </is>
       </c>
+      <c r="C1249" t="n">
+        <v>7.9</v>
+      </c>
     </row>
     <row r="1250">
       <c r="A1250" t="inlineStr">
@@ -15420,6 +15475,9 @@
           <t>1,85</t>
         </is>
       </c>
+      <c r="C1250" t="n">
+        <v>5.9</v>
+      </c>
     </row>
     <row r="1251">
       <c r="A1251" t="inlineStr">
@@ -15660,6 +15718,9 @@
           <t>0,78</t>
         </is>
       </c>
+      <c r="C1270" t="n">
+        <v>2.9</v>
+      </c>
     </row>
     <row r="1271">
       <c r="A1271" t="inlineStr">
@@ -15672,6 +15733,9 @@
           <t>0,78</t>
         </is>
       </c>
+      <c r="C1271" t="n">
+        <v>1.0764</v>
+      </c>
     </row>
     <row r="1272">
       <c r="A1272" t="inlineStr">
@@ -15684,6 +15748,9 @@
           <t>0,88</t>
         </is>
       </c>
+      <c r="C1272" t="n">
+        <v>1.616</v>
+      </c>
     </row>
     <row r="1273">
       <c r="A1273" t="inlineStr">
@@ -15696,6 +15763,9 @@
           <t>0,88</t>
         </is>
       </c>
+      <c r="C1273" t="n">
+        <v>2.9</v>
+      </c>
     </row>
     <row r="1274">
       <c r="A1274" t="inlineStr">
@@ -15708,6 +15778,9 @@
           <t>0,98</t>
         </is>
       </c>
+      <c r="C1274" t="n">
+        <v>1.616</v>
+      </c>
     </row>
     <row r="1275">
       <c r="A1275" t="inlineStr">
@@ -15720,6 +15793,9 @@
           <t>0,78</t>
         </is>
       </c>
+      <c r="C1275" t="n">
+        <v>1.616</v>
+      </c>
     </row>
     <row r="1276">
       <c r="A1276" t="inlineStr">
@@ -27756,6 +27832,9 @@
           <t>78,9</t>
         </is>
       </c>
+      <c r="C2278" t="n">
+        <v>143.9</v>
+      </c>
     </row>
     <row r="2279">
       <c r="A2279" t="inlineStr">
@@ -27996,6 +28075,9 @@
           <t>19,4</t>
         </is>
       </c>
+      <c r="C2298" t="n">
+        <v>26.77199999999999</v>
+      </c>
     </row>
     <row r="2299">
       <c r="A2299" t="inlineStr">
@@ -29268,6 +29350,9 @@
           <t>53,15</t>
         </is>
       </c>
+      <c r="C2404" t="n">
+        <v>98.87</v>
+      </c>
     </row>
     <row r="2405">
       <c r="A2405" t="inlineStr">
@@ -29304,6 +29389,9 @@
           <t>2,43</t>
         </is>
       </c>
+      <c r="C2407" t="n">
+        <v>5.99</v>
+      </c>
     </row>
     <row r="2408">
       <c r="A2408" t="inlineStr">
@@ -29520,6 +29608,9 @@
           <t>19,4</t>
         </is>
       </c>
+      <c r="C2425" t="n">
+        <v>41.768</v>
+      </c>
     </row>
     <row r="2426">
       <c r="A2426" t="inlineStr">
@@ -29532,6 +29623,9 @@
           <t>19,4</t>
         </is>
       </c>
+      <c r="C2426" t="n">
+        <v>26.77199999999999</v>
+      </c>
     </row>
     <row r="2427">
       <c r="A2427" t="inlineStr">
@@ -29544,6 +29638,9 @@
           <t>19,4</t>
         </is>
       </c>
+      <c r="C2427" t="n">
+        <v>26.77199999999999</v>
+      </c>
     </row>
     <row r="2428">
       <c r="A2428" t="inlineStr">
@@ -29556,6 +29653,9 @@
           <t>19,4</t>
         </is>
       </c>
+      <c r="C2428" t="n">
+        <v>38.99</v>
+      </c>
     </row>
     <row r="2429">
       <c r="A2429" t="inlineStr">
@@ -29724,6 +29824,9 @@
           <t>2,45</t>
         </is>
       </c>
+      <c r="C2442" t="n">
+        <v>10.9</v>
+      </c>
     </row>
     <row r="2443">
       <c r="A2443" t="inlineStr">
@@ -29735,6 +29838,9 @@
         <is>
           <t>3,65</t>
         </is>
+      </c>
+      <c r="C2443" t="n">
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="2444">
